--- a/medicine/Mort/Cimetière_intercommunal_de_Clamart/Cimetière_intercommunal_de_Clamart.xlsx
+++ b/medicine/Mort/Cimetière_intercommunal_de_Clamart/Cimetière_intercommunal_de_Clamart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_intercommunal_de_Clamart</t>
+          <t>Cimetière_intercommunal_de_Clamart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière intercommunal de Clamart, ou cimetière du Parc, se trouve rue de la Porte-de-Trivaux à Clamart dans les Hauts-de-Seine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière intercommunal de Clamart, ou cimetière du Parc, se trouve rue de la Porte-de-Trivaux à Clamart dans les Hauts-de-Seine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_intercommunal_de_Clamart</t>
+          <t>Cimetière_intercommunal_de_Clamart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été conçu par l'architecte Robert Auzelle et ouvert en 1956[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été conçu par l'architecte Robert Auzelle et ouvert en 1956.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_intercommunal_de_Clamart</t>
+          <t>Cimetière_intercommunal_de_Clamart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Auzelle (1913-1983), concepteur du cimetière,
 Le peintre Jean Bazaine (1904-2001),
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_intercommunal_de_Clamart</t>
+          <t>Cimetière_intercommunal_de_Clamart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cimetière de Clamart</t>
         </is>
